--- a/datos_fbref/CARTELERA_PROXIMOS_Primeira_Liga.xlsx
+++ b/datos_fbref/CARTELERA_PROXIMOS_Primeira_Liga.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L145"/>
+  <dimension ref="A1:L144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -841,34 +841,34 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-21</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>20:45 (17:45)</t>
+          <t>15:30 (12:30)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Arouca</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Estádio José Gomes</t>
+          <t>Estádio Municipal de Arouca</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -902,19 +902,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Estádio Municipal de Arouca</t>
+          <t>Campo Futebol Clube Alverca</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -943,24 +943,24 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>15:30 (12:30)</t>
+          <t>18:00 (15:00)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Campo Futebol Clube Alverca</t>
+          <t>Parque Desportivo Comendador Joaquim de ...</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -994,19 +994,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>AVS Futebol</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Parque Desportivo Comendador Joaquim de ...</t>
+          <t>Estádio do Sport Lisboa e Benfica</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -1035,24 +1035,24 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>18:00 (15:00)</t>
+          <t>20:30 (17:30)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>AVS Futebol</t>
+          <t>Vitória Guimarães</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Estádio do Sport Lisboa e Benfica</t>
+          <t>Estádio Municipal de Braga</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -1071,34 +1071,34 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2026-02-21</t>
+          <t>2026-02-22</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>20:30 (17:30)</t>
+          <t>18:00 (15:00)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Vitória Guimarães</t>
+          <t>Gil Vicente FC</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Estádio Municipal de Braga</t>
+          <t>Estádio António Coimbra da Mota</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -1127,24 +1127,24 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>18:00 (15:00)</t>
+          <t>20:30 (17:30)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Gil Vicente FC</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Estádio António Coimbra da Mota</t>
+          <t>Estádio do Dragão</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -1163,34 +1163,34 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2026-02-22</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>20:30 (17:30)</t>
+          <t>20:15 (17:15)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Famalicão</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Estádio do Dragão</t>
+          <t>Estádio Municipal 22 de Junho</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -1202,63 +1202,63 @@
       <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>2026-02-23</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>20:15 (17:15)</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Famalicão</t>
-        </is>
-      </c>
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Casa Pia</t>
-        </is>
-      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Estádio Municipal 22 de Junho</t>
-        </is>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>18:45 (15:45)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Arouca</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Estádio do Dragão</t>
+        </is>
+      </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
@@ -1279,24 +1279,24 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>18:45 (15:45)</t>
+          <t>20:45 (17:45)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Estádio do Dragão</t>
+          <t>Estádio José Alvalade</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -1315,34 +1315,34 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>20:45 (17:45)</t>
+          <t>15:30 (12:30)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>AVS Futebol</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Estádio José Alvalade</t>
+          <t>Estádio Clube Desportivo das Aves</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -1371,24 +1371,24 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>15:30 (12:30)</t>
+          <t>18:00 (15:00)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>AVS Futebol</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Estádio Clube Desportivo das Aves</t>
+          <t>Estádio da Madeira</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -1417,24 +1417,24 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>18:00 (15:00)</t>
+          <t>20:30 (17:30)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Vitória Guimarães</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Estádio da Madeira</t>
+          <t>Estádio Dom Afonso Henriques</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -1453,34 +1453,34 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2026-02-28</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>20:30 (17:30)</t>
+          <t>15:30 (12:30)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Vitória Guimarães</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Estádio Dom Afonso Henriques</t>
+          <t>Estádio João Cardoso</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -1509,24 +1509,24 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>15:30 (12:30)</t>
+          <t>18:00 (15:00)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Estádio João Cardoso</t>
+          <t>Estádio Municipal de Rio Maior</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -1555,24 +1555,24 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>18:00 (15:00)</t>
+          <t>20:30 (17:30)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Famalicão</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Estádio Municipal de Rio Maior</t>
+          <t>Estádio do Rio Ave Futebol Clube</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -1591,34 +1591,34 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2026-03-01</t>
+          <t>2026-03-02</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>20:30 (17:30)</t>
+          <t>20:15 (17:15)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Gil Vicente FC</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Famalicão</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Estádio do Rio Ave Futebol Clube</t>
+          <t>Estádio Cidade de Barcelos</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -1630,63 +1630,59 @@
       <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>2026-03-02</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>20:15 (17:15)</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Gil Vicente FC</t>
-        </is>
-      </c>
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Benfica</t>
-        </is>
-      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Estádio Cidade de Barcelos</t>
-        </is>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr"/>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2026-03-08</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Alverca</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>AVS Futebol</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Campo Futebol Clube Alverca</t>
+        </is>
+      </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
@@ -1708,19 +1704,19 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>AVS Futebol</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Campo Futebol Clube Alverca</t>
+          <t>Estádio António Coimbra da Mota</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -1750,19 +1746,19 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Estádio António Coimbra da Mota</t>
+          <t>Parque Desportivo Comendador Joaquim de ...</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -1792,19 +1788,19 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Famalicão</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Arouca</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Parque Desportivo Comendador Joaquim de ...</t>
+          <t>Estádio Municipal 22 de Junho</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -1834,19 +1830,19 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Famalicão</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Estádio Municipal 22 de Junho</t>
+          <t>Estádio Municipal de Braga</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -1876,19 +1872,19 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Estádio Municipal de Braga</t>
+          <t>Estádio do Sport Lisboa e Benfica</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -1918,19 +1914,19 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Gil Vicente FC</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Estádio do Sport Lisboa e Benfica</t>
+          <t>Estádio José Gomes</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -1960,19 +1956,19 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Gil Vicente FC</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Estádio José Gomes</t>
+          <t>Estádio João Cardoso</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -2002,19 +1998,19 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Vitória Guimarães</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Estádio João Cardoso</t>
+          <t>Estádio de São Miguel</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -2026,59 +2022,59 @@
       <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2026-03-08</t>
-        </is>
-      </c>
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Santa Clara</t>
-        </is>
-      </c>
+      <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr">
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2026-03-15</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
         <is>
           <t>Vitória Guimarães</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>Estádio de São Miguel</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr"/>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Famalicão</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Estádio Dom Afonso Henriques</t>
+        </is>
+      </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
@@ -2100,19 +2096,19 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Vitória Guimarães</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Famalicão</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Estádio Dom Afonso Henriques</t>
+          <t>Estádio do Rio Ave Futebol Clube</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -2142,19 +2138,19 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Estádio do Rio Ave Futebol Clube</t>
+          <t>Estádio Municipal de Rio Maior</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -2184,19 +2180,19 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Gil Vicente FC</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Estádio Municipal de Rio Maior</t>
+          <t>Estádio Cidade de Barcelos</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -2226,19 +2222,19 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Gil Vicente FC</t>
+          <t>AVS Futebol</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Estádio Cidade de Barcelos</t>
+          <t>Estádio Clube Desportivo das Aves</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -2268,19 +2264,19 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>AVS Futebol</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Estádio Clube Desportivo das Aves</t>
+          <t>Estádio da Madeira</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -2310,19 +2306,19 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Estádio da Madeira</t>
+          <t>Estádio do Dragão</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -2352,19 +2348,19 @@
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Estádio do Dragão</t>
+          <t>Estádio José Alvalade</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -2394,19 +2390,19 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Arouca</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Estádio José Alvalade</t>
+          <t>Estádio Municipal de Arouca</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -2418,59 +2414,59 @@
       <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>2026-03-15</t>
-        </is>
-      </c>
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Arouca</t>
-        </is>
-      </c>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Benfica</t>
-        </is>
-      </c>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>Estádio Municipal de Arouca</t>
-        </is>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr"/>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2026-03-22</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Estoril</t>
+        </is>
+      </c>
       <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Rio Ave</t>
+        </is>
+      </c>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Estádio António Coimbra da Mota</t>
+        </is>
+      </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
@@ -2492,19 +2488,19 @@
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Estádio António Coimbra da Mota</t>
+          <t>Estádio Municipal de Braga</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -2534,19 +2530,19 @@
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>AVS Futebol</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Estádio Municipal de Braga</t>
+          <t>Estádio João Cardoso</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -2576,19 +2572,19 @@
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>AVS Futebol</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Estádio João Cardoso</t>
+          <t>Campo Futebol Clube Alverca</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -2618,19 +2614,19 @@
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Campo Futebol Clube Alverca</t>
+          <t>Estádio José Gomes</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -2660,19 +2656,19 @@
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Famalicão</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Estádio José Gomes</t>
+          <t>Estádio Municipal 22 de Junho</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -2702,19 +2698,19 @@
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Famalicão</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Arouca</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Estádio Municipal 22 de Junho</t>
+          <t>Parque Desportivo Comendador Joaquim de ...</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -2744,19 +2740,19 @@
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Gil Vicente FC</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Parque Desportivo Comendador Joaquim de ...</t>
+          <t>Estádio de São Miguel</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -2786,19 +2782,19 @@
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Gil Vicente FC</t>
+          <t>Vitória Guimarães</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Estádio de São Miguel</t>
+          <t>Estádio do Sport Lisboa e Benfica</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -2810,59 +2806,59 @@
       <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>2026-03-22</t>
-        </is>
-      </c>
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Benfica</t>
-        </is>
-      </c>
+      <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Vitória Guimarães</t>
-        </is>
-      </c>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>Estádio do Sport Lisboa e Benfica</t>
-        </is>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr"/>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2026-04-04</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
       <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Estrela</t>
+        </is>
+      </c>
       <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Estádio da Madeira</t>
+        </is>
+      </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
@@ -2884,19 +2880,19 @@
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Estádio da Madeira</t>
+          <t>Parque Desportivo Comendador Joaquim de ...</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -2926,19 +2922,19 @@
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Vitória Guimarães</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Parque Desportivo Comendador Joaquim de ...</t>
+          <t>Estádio Dom Afonso Henriques</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -2968,19 +2964,19 @@
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Vitória Guimarães</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Estádio Dom Afonso Henriques</t>
+          <t>Estádio José Alvalade</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -3010,19 +3006,19 @@
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Gil Vicente FC</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>AVS Futebol</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Estádio José Alvalade</t>
+          <t>Estádio Cidade de Barcelos</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -3052,19 +3048,19 @@
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Gil Vicente FC</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>AVS Futebol</t>
+          <t>Famalicão</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Estádio Cidade de Barcelos</t>
+          <t>Estádio do Dragão</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -3094,19 +3090,19 @@
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Arouca</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Famalicão</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Estádio do Dragão</t>
+          <t>Estádio Municipal de Arouca</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -3136,19 +3132,19 @@
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Estádio Municipal de Arouca</t>
+          <t>Estádio do Rio Ave Futebol Clube</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -3178,19 +3174,19 @@
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Estádio do Rio Ave Futebol Clube</t>
+          <t>Estádio Municipal de Rio Maior</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -3202,59 +3198,59 @@
       <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Sat</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>2026-04-04</t>
-        </is>
-      </c>
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Casa Pia</t>
-        </is>
-      </c>
+      <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Benfica</t>
-        </is>
-      </c>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>Estádio Municipal de Rio Maior</t>
-        </is>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr"/>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2026-04-12</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Estoril</t>
+        </is>
+      </c>
       <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
       <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Estádio António Coimbra da Mota</t>
+        </is>
+      </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
@@ -3276,19 +3272,19 @@
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Gil Vicente FC</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Estádio António Coimbra da Mota</t>
+          <t>Estádio João Cardoso</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -3318,19 +3314,19 @@
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Gil Vicente FC</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Estádio João Cardoso</t>
+          <t>Campo Futebol Clube Alverca</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -3360,19 +3356,19 @@
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Campo Futebol Clube Alverca</t>
+          <t>Estádio do Sport Lisboa e Benfica</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -3402,19 +3398,19 @@
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Famalicão</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Estádio do Sport Lisboa e Benfica</t>
+          <t>Estádio Municipal 22 de Junho</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -3444,19 +3440,19 @@
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Famalicão</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Arouca</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Estádio Municipal 22 de Junho</t>
+          <t>Estádio Municipal de Braga</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -3486,19 +3482,19 @@
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Estádio Municipal de Braga</t>
+          <t>Estádio de São Miguel</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -3528,19 +3524,19 @@
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Estádio de São Miguel</t>
+          <t>Estádio José Gomes</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -3570,19 +3566,19 @@
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>AVS Futebol</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Vitória Guimarães</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Estádio José Gomes</t>
+          <t>Estádio Clube Desportivo das Aves</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -3594,59 +3590,59 @@
       <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>2026-04-12</t>
-        </is>
-      </c>
+      <c r="A95" t="inlineStr"/>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>AVS Futebol</t>
-        </is>
-      </c>
+      <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>Vitória Guimarães</t>
-        </is>
-      </c>
+      <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>Estádio Clube Desportivo das Aves</t>
-        </is>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr"/>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2026-04-19</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Moreirense</t>
+        </is>
+      </c>
       <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Estoril</t>
+        </is>
+      </c>
       <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Parque Desportivo Comendador Joaquim de ...</t>
+        </is>
+      </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
@@ -3668,19 +3664,19 @@
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Arouca</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Parque Desportivo Comendador Joaquim de ...</t>
+          <t>Estádio Municipal de Arouca</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -3710,19 +3706,19 @@
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Estádio Municipal de Arouca</t>
+          <t>Estádio do Dragão</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -3752,19 +3748,19 @@
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Estádio do Dragão</t>
+          <t>Estádio da Madeira</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -3794,19 +3790,19 @@
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Estádio da Madeira</t>
+          <t>Estádio José Alvalade</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -3836,19 +3832,19 @@
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Famalicão</t>
         </is>
       </c>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Estádio José Alvalade</t>
+          <t>Estádio Municipal de Braga</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -3878,19 +3874,19 @@
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Famalicão</t>
+          <t>AVS Futebol</t>
         </is>
       </c>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Estádio Municipal de Braga</t>
+          <t>Estádio do Rio Ave Futebol Clube</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -3920,19 +3916,19 @@
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr">
         <is>
-          <t>AVS Futebol</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Estádio do Rio Ave Futebol Clube</t>
+          <t>Estádio Municipal de Rio Maior</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -3962,19 +3958,19 @@
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Gil Vicente FC</t>
         </is>
       </c>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>Vitória Guimarães</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Estádio Municipal de Rio Maior</t>
+          <t>Estádio Cidade de Barcelos</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -3986,59 +3982,59 @@
       <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>2026-04-19</t>
-        </is>
-      </c>
+      <c r="A105" t="inlineStr"/>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Gil Vicente FC</t>
-        </is>
-      </c>
+      <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>Vitória Guimarães</t>
-        </is>
-      </c>
+      <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>Estádio Cidade de Barcelos</t>
-        </is>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr"/>
-      <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr"/>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2026-04-26</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Alverca</t>
+        </is>
+      </c>
       <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Arouca</t>
+        </is>
+      </c>
       <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Campo Futebol Clube Alverca</t>
+        </is>
+      </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
@@ -4060,19 +4056,19 @@
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Campo Futebol Clube Alverca</t>
+          <t>Estádio do Sport Lisboa e Benfica</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -4102,19 +4098,19 @@
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Estádio do Sport Lisboa e Benfica</t>
+          <t>Estádio José Gomes</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -4144,19 +4140,19 @@
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>AVS Futebol</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Estádio José Gomes</t>
+          <t>Estádio Clube Desportivo das Aves</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -4186,19 +4182,19 @@
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>AVS Futebol</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Estádio Clube Desportivo das Aves</t>
+          <t>Estádio João Cardoso</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -4228,19 +4224,19 @@
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Estádio João Cardoso</t>
+          <t>Estádio de São Miguel</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -4270,19 +4266,19 @@
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Famalicão</t>
         </is>
       </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Estádio de São Miguel</t>
+          <t>Estádio António Coimbra da Mota</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -4312,19 +4308,19 @@
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Vitória Guimarães</t>
         </is>
       </c>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Famalicão</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Estádio António Coimbra da Mota</t>
+          <t>Estádio Dom Afonso Henriques</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -4354,19 +4350,19 @@
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Vitória Guimarães</t>
+          <t>Gil Vicente FC</t>
         </is>
       </c>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Estádio Dom Afonso Henriques</t>
+          <t>Estádio Cidade de Barcelos</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -4378,59 +4374,59 @@
       <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>2026-04-26</t>
-        </is>
-      </c>
+      <c r="A115" t="inlineStr"/>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Gil Vicente FC</t>
-        </is>
-      </c>
+      <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>Casa Pia</t>
-        </is>
-      </c>
+      <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>Estádio Cidade de Barcelos</t>
-        </is>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr"/>
-      <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr"/>
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2026-05-03</t>
+        </is>
+      </c>
       <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Moreirense</t>
+        </is>
+      </c>
       <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Estrela</t>
+        </is>
+      </c>
       <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Parque Desportivo Comendador Joaquim de ...</t>
+        </is>
+      </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
@@ -4452,19 +4448,19 @@
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Gil Vicente FC</t>
         </is>
       </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Parque Desportivo Comendador Joaquim de ...</t>
+          <t>Estádio do Rio Ave Futebol Clube</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -4494,19 +4490,19 @@
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Gil Vicente FC</t>
+          <t>Vitória Guimarães</t>
         </is>
       </c>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Estádio do Rio Ave Futebol Clube</t>
+          <t>Estádio José Alvalade</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -4536,19 +4532,19 @@
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Famalicão</t>
         </is>
       </c>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Vitória Guimarães</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Estádio José Alvalade</t>
+          <t>Estádio Municipal 22 de Junho</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -4578,19 +4574,19 @@
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Famalicão</t>
+          <t>Arouca</t>
         </is>
       </c>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Estádio Municipal 22 de Junho</t>
+          <t>Estádio Municipal de Arouca</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -4620,19 +4616,19 @@
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>AVS Futebol</t>
         </is>
       </c>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Estádio Municipal de Arouca</t>
+          <t>Estádio da Madeira</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -4662,19 +4658,19 @@
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr">
         <is>
-          <t>AVS Futebol</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Estádio da Madeira</t>
+          <t>Estádio Municipal de Rio Maior</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -4704,19 +4700,19 @@
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Estádio Municipal de Rio Maior</t>
+          <t>Estádio do Dragão</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -4746,19 +4742,19 @@
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Estádio do Dragão</t>
+          <t>Estádio Municipal de Braga</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -4770,59 +4766,59 @@
       <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>2026-05-03</t>
-        </is>
-      </c>
+      <c r="A125" t="inlineStr"/>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Braga</t>
-        </is>
-      </c>
+      <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>Estoril</t>
-        </is>
-      </c>
+      <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>Estádio Municipal de Braga</t>
-        </is>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr"/>
-      <c r="B126" t="inlineStr"/>
-      <c r="C126" t="inlineStr"/>
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2026-05-10</t>
+        </is>
+      </c>
       <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Tondela</t>
+        </is>
+      </c>
       <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Moreirense</t>
+        </is>
+      </c>
       <c r="H126" t="inlineStr"/>
-      <c r="I126" t="inlineStr"/>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Estádio João Cardoso</t>
+        </is>
+      </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
@@ -4844,19 +4840,19 @@
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Vitória Guimarães</t>
         </is>
       </c>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Estádio João Cardoso</t>
+          <t>Estádio Dom Afonso Henriques</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
@@ -4886,19 +4882,19 @@
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Vitória Guimarães</t>
+          <t>AVS Futebol</t>
         </is>
       </c>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Estádio Dom Afonso Henriques</t>
+          <t>Estádio Clube Desportivo das Aves</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
@@ -4928,19 +4924,19 @@
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>AVS Futebol</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Estádio Clube Desportivo das Aves</t>
+          <t>Campo Futebol Clube Alverca</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -4970,19 +4966,19 @@
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Campo Futebol Clube Alverca</t>
+          <t>Estádio de São Miguel</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
@@ -5012,19 +5008,19 @@
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Estádio de São Miguel</t>
+          <t>Estádio do Rio Ave Futebol Clube</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
@@ -5054,19 +5050,19 @@
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Estádio do Rio Ave Futebol Clube</t>
+          <t>Estádio do Sport Lisboa e Benfica</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
@@ -5096,19 +5092,19 @@
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Gil Vicente FC</t>
         </is>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Arouca</t>
         </is>
       </c>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Estádio do Sport Lisboa e Benfica</t>
+          <t>Estádio Cidade de Barcelos</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
@@ -5138,19 +5134,19 @@
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Gil Vicente FC</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Famalicão</t>
         </is>
       </c>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Estádio Cidade de Barcelos</t>
+          <t>Estádio José Gomes</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
@@ -5162,59 +5158,59 @@
       <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>2026-05-10</t>
-        </is>
-      </c>
+      <c r="A135" t="inlineStr"/>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Estrela</t>
-        </is>
-      </c>
+      <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>Famalicão</t>
-        </is>
-      </c>
+      <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>Estádio José Gomes</t>
-        </is>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr"/>
-      <c r="B136" t="inlineStr"/>
-      <c r="C136" t="inlineStr"/>
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>2026-05-17</t>
+        </is>
+      </c>
       <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr"/>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
       <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Gil Vicente FC</t>
+        </is>
+      </c>
       <c r="H136" t="inlineStr"/>
-      <c r="I136" t="inlineStr"/>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Estádio José Alvalade</t>
+        </is>
+      </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
@@ -5236,19 +5232,19 @@
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Gil Vicente FC</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Estádio José Alvalade</t>
+          <t>Estádio António Coimbra da Mota</t>
         </is>
       </c>
       <c r="J137" t="inlineStr"/>
@@ -5278,19 +5274,19 @@
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Famalicão</t>
         </is>
       </c>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Estádio António Coimbra da Mota</t>
+          <t>Estádio Municipal 22 de Junho</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
@@ -5320,19 +5316,19 @@
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Famalicão</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Estádio Municipal 22 de Junho</t>
+          <t>Estádio Municipal de Rio Maior</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
@@ -5362,19 +5358,19 @@
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Estádio Municipal de Rio Maior</t>
+          <t>Estádio Municipal de Braga</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
@@ -5404,19 +5400,19 @@
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>AVS Futebol</t>
         </is>
       </c>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Estádio Municipal de Braga</t>
+          <t>Parque Desportivo Comendador Joaquim de ...</t>
         </is>
       </c>
       <c r="J141" t="inlineStr"/>
@@ -5446,19 +5442,19 @@
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Arouca</t>
         </is>
       </c>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr">
         <is>
-          <t>AVS Futebol</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Parque Desportivo Comendador Joaquim de ...</t>
+          <t>Estádio Municipal de Arouca</t>
         </is>
       </c>
       <c r="J142" t="inlineStr"/>
@@ -5488,19 +5484,19 @@
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Vitória Guimarães</t>
         </is>
       </c>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Estádio Municipal de Arouca</t>
+          <t>Estádio da Madeira</t>
         </is>
       </c>
       <c r="J143" t="inlineStr"/>
@@ -5530,19 +5526,19 @@
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Vitória Guimarães</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Estádio da Madeira</t>
+          <t>Estádio do Dragão</t>
         </is>
       </c>
       <c r="J144" t="inlineStr"/>
@@ -5552,48 +5548,6 @@
         </is>
       </c>
       <c r="L144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>2026-05-17</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>Porto</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>Santa Clara</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr"/>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>Estádio do Dragão</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
-      <c r="L145" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
